--- a/Results-Generation/subj5/results_Alpha.xlsx
+++ b/Results-Generation/subj5/results_Alpha.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Layers Number</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>Noise</t>
-  </si>
-  <si>
-    <t>movehead</t>
   </si>
 </sst>
 </file>
@@ -437,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -508,71 +505,6 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
-      <c r="A2">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>20</v>
-      </c>
-      <c r="C2">
-        <v>20</v>
-      </c>
-      <c r="D2">
-        <v>20</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>2.5</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>0.5</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>15</v>
-      </c>
-      <c r="K2">
-        <v>10</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0.01</v>
-      </c>
-      <c r="P2">
-        <v>0.01</v>
-      </c>
-      <c r="Q2">
-        <v>-1.449764027933893</v>
-      </c>
-      <c r="R2">
-        <v>3.344083949444509</v>
-      </c>
-      <c r="S2">
-        <v>2.204190255890288</v>
-      </c>
-      <c r="T2">
-        <v>4</v>
-      </c>
-      <c r="U2" t="s">
-        <v>21</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Results-Generation/subj5/results_Alpha.xlsx
+++ b/Results-Generation/subj5/results_Alpha.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Layers Number</t>
   </si>
@@ -77,6 +77,21 @@
   </si>
   <si>
     <t>Noise</t>
+  </si>
+  <si>
+    <t>eyescrunching</t>
+  </si>
+  <si>
+    <t>jaw</t>
+  </si>
+  <si>
+    <t>raisingeyebrows</t>
+  </si>
+  <si>
+    <t>movehat</t>
+  </si>
+  <si>
+    <t>movehead</t>
   </si>
 </sst>
 </file>
@@ -434,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -505,6 +520,331 @@
         <v>20</v>
       </c>
     </row>
+    <row r="2" spans="1:21">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2.5</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0.5</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>15</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0.01</v>
+      </c>
+      <c r="P2">
+        <v>0.01</v>
+      </c>
+      <c r="Q2">
+        <v>-0.0738400261005589</v>
+      </c>
+      <c r="R2">
+        <v>15.88588071331727</v>
+      </c>
+      <c r="S2">
+        <v>4.571465910586882</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2.5</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0.5</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>15</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0.01</v>
+      </c>
+      <c r="P3">
+        <v>0.1</v>
+      </c>
+      <c r="Q3">
+        <v>-0.02903273376741133</v>
+      </c>
+      <c r="R3">
+        <v>19.83350219973457</v>
+      </c>
+      <c r="S3">
+        <v>-15.48431052625258</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2.5</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0.5</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>15</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0.01</v>
+      </c>
+      <c r="P4">
+        <v>0.01</v>
+      </c>
+      <c r="Q4">
+        <v>-0.3664019806239966</v>
+      </c>
+      <c r="R4">
+        <v>15.83675581695562</v>
+      </c>
+      <c r="S4">
+        <v>10.24701591653692</v>
+      </c>
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2.5</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0.5</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>15</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0.01</v>
+      </c>
+      <c r="P5">
+        <v>0.01</v>
+      </c>
+      <c r="Q5">
+        <v>-0.02541153791507557</v>
+      </c>
+      <c r="R5">
+        <v>21.6287663825487</v>
+      </c>
+      <c r="S5">
+        <v>16.11835549118687</v>
+      </c>
+      <c r="T5">
+        <v>3</v>
+      </c>
+      <c r="U5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2.5</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0.5</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0.01</v>
+      </c>
+      <c r="P6">
+        <v>0.01</v>
+      </c>
+      <c r="Q6">
+        <v>-1.449764027933893</v>
+      </c>
+      <c r="R6">
+        <v>3.212056155844523</v>
+      </c>
+      <c r="S6">
+        <v>2.204190255890288</v>
+      </c>
+      <c r="T6">
+        <v>4</v>
+      </c>
+      <c r="U6" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
